--- a/basics/src/main/resources/Testcase.xlsx
+++ b/basics/src/main/resources/Testcase.xlsx
@@ -255,9 +255,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,14 +331,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/basics/src/main/resources/Testcase.xlsx
+++ b/basics/src/main/resources/Testcase.xlsx
@@ -250,14 +250,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,7 +304,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -326,19 +326,19 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
